--- a/Measurement_Results/UV-VIS/11.03.16/GNP_11032016_3.xlsx
+++ b/Measurement_Results/UV-VIS/11.03.16/GNP_11032016_3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DISK_IMG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LIesDeceuninck/Bachelorproef2/Measurement_Results/UV-VIS/11.03.16/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="15420" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zonder Zout" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11507,11 +11506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046493680"/>
-        <c:axId val="-2072440688"/>
+        <c:axId val="-2097729344"/>
+        <c:axId val="-2075302640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2046493680"/>
+        <c:axId val="-2097729344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11568,12 +11567,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072440688"/>
+        <c:crossAx val="-2075302640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2072440688"/>
+        <c:axId val="-2075302640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11630,7 +11629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046493680"/>
+        <c:crossAx val="-2097729344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11644,7 +11643,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22668,11 +22666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134959088"/>
-        <c:axId val="2135696368"/>
+        <c:axId val="-2076521200"/>
+        <c:axId val="2119395600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134959088"/>
+        <c:axId val="-2076521200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22682,12 +22680,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135696368"/>
+        <c:crossAx val="2119395600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135696368"/>
+        <c:axId val="2119395600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22698,7 +22696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134959088"/>
+        <c:crossAx val="-2076521200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26407,11 +26405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095788688"/>
-        <c:axId val="-2095672832"/>
+        <c:axId val="2086700976"/>
+        <c:axId val="-2079383120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095788688"/>
+        <c:axId val="2086700976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -26423,12 +26421,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095672832"/>
+        <c:crossAx val="-2079383120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095672832"/>
+        <c:axId val="-2079383120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26439,7 +26437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095788688"/>
+        <c:crossAx val="2086700976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30143,11 +30141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2135588464"/>
-        <c:axId val="-2135562240"/>
+        <c:axId val="2144273536"/>
+        <c:axId val="2143459280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2135588464"/>
+        <c:axId val="2144273536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -30159,12 +30157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135562240"/>
+        <c:crossAx val="2143459280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135562240"/>
+        <c:axId val="2143459280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30175,7 +30173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135588464"/>
+        <c:crossAx val="2144273536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33879,11 +33877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121890560"/>
-        <c:axId val="-2115665200"/>
+        <c:axId val="-2075789328"/>
+        <c:axId val="-2078245088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121890560"/>
+        <c:axId val="-2075789328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900.0"/>
@@ -33895,12 +33893,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115665200"/>
+        <c:crossAx val="-2078245088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115665200"/>
+        <c:axId val="-2078245088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33911,7 +33909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121890560"/>
+        <c:crossAx val="-2075789328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -42998,8 +42996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
